--- a/Documentation/Gantt Chart.xlsx
+++ b/Documentation/Gantt Chart.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\University Year 3\Comp3000\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\woody\Official\COMP3000\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B37C415-C493-49E9-BE4B-3E9B32EA838B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C14CB7C7-E57A-451E-91BA-E9F094ECCB75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{D6CA7327-8391-4ADC-A46A-1094BD6B68B5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{D6CA7327-8391-4ADC-A46A-1094BD6B68B5}"/>
   </bookViews>
   <sheets>
     <sheet name="Chart1" sheetId="2" r:id="rId1"/>
@@ -75,12 +75,6 @@
     <t>Testing</t>
   </si>
   <si>
-    <t>Further Improvements</t>
-  </si>
-  <si>
-    <t>Potential Further Exercises and Refinement</t>
-  </si>
-  <si>
     <t>Quiz Research and Creation</t>
   </si>
   <si>
@@ -118,6 +112,12 @@
   </si>
   <si>
     <t>Excerise 4 - Recognizing Insider Threats</t>
+  </si>
+  <si>
+    <t>Improvements from Testing</t>
+  </si>
+  <si>
+    <t>Phishing Malware Simulation</t>
   </si>
 </sst>
 </file>
@@ -198,7 +198,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -329,25 +329,25 @@
                   <c:v>Exercise 2 - Password Strength Tester </c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>Greeting/ Task information </c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Progress Tracker</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Quiz Research and Creation</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Quizzes Implementation </c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Phishing Malware Simulation</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>Exercise 3 - Safe Web Browsing &amp; Malware Downloads</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="16">
                   <c:v>Excerise 4 - Recognizing Insider Threats</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Potential Further Exercises and Refinement</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Greeting/ Task information </c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Progress Tracker</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>Quiz Research and Creation</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>Quizzes Implementation </c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>Score Implementation</c:v>
@@ -356,7 +356,7 @@
                   <c:v>Testing</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>Further Improvements</c:v>
+                  <c:v>Improvements from Testing</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>Poster and Description</c:v>
@@ -508,25 +508,25 @@
                   <c:v>Exercise 2 - Password Strength Tester </c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>Greeting/ Task information </c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Progress Tracker</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Quiz Research and Creation</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Quizzes Implementation </c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Phishing Malware Simulation</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>Exercise 3 - Safe Web Browsing &amp; Malware Downloads</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="16">
                   <c:v>Excerise 4 - Recognizing Insider Threats</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Potential Further Exercises and Refinement</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Greeting/ Task information </c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Progress Tracker</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>Quiz Research and Creation</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>Quizzes Implementation </c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>Score Implementation</c:v>
@@ -535,7 +535,7 @@
                   <c:v>Testing</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>Further Improvements</c:v>
+                  <c:v>Improvements from Testing</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>Poster and Description</c:v>
@@ -1347,7 +1347,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{3EF4FB33-4389-4F14-AF7E-1A9E25D13790}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="120" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1706,8 +1706,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5007213-0D92-410E-AC54-80C5C3AB5883}">
   <dimension ref="A3:N27"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1746,16 +1746,16 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
         <v>17</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" t="s">
         <v>18</v>
-      </c>
-      <c r="C4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -1857,8 +1857,8 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>23</v>
+      <c r="A12" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="B12" s="2">
         <v>45608</v>
@@ -1871,8 +1871,8 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>24</v>
+      <c r="A13" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="B13" s="2">
         <v>45618</v>
@@ -1885,8 +1885,8 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>25</v>
+      <c r="A14" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="B14" s="2">
         <v>45628</v>
@@ -1899,8 +1899,8 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>10</v>
+      <c r="A15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="B15" s="2">
         <v>45635</v>
@@ -1914,7 +1914,7 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="B16" s="2">
         <v>45642</v>
@@ -1928,7 +1928,7 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B17" s="2">
         <v>45649</v>
@@ -1942,7 +1942,7 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="B18" s="2">
         <v>45667</v>
@@ -1956,7 +1956,7 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="B19" s="2">
         <v>45677</v>
@@ -1970,7 +1970,7 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B20" s="2">
         <v>45684</v>
@@ -1984,7 +1984,7 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21" s="2">
         <v>45684</v>
@@ -2026,7 +2026,7 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="B24" s="2">
         <v>45702</v>
@@ -2040,7 +2040,7 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B25" s="2">
         <v>45730</v>
@@ -2054,7 +2054,7 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B26" s="2">
         <v>45737</v>
@@ -2066,12 +2066,12 @@
         <v>38</v>
       </c>
       <c r="M26" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="L27" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/Gantt Chart.xlsx
+++ b/Documentation/Gantt Chart.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\woody\Official\COMP3000\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dmpen\COMP3000\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C14CB7C7-E57A-451E-91BA-E9F094ECCB75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96B89CCF-685B-4D86-9442-9F29BB8306C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{D6CA7327-8391-4ADC-A46A-1094BD6B68B5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D6CA7327-8391-4ADC-A46A-1094BD6B68B5}"/>
   </bookViews>
   <sheets>
     <sheet name="Chart1" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>Project Initiation</t>
   </si>
@@ -51,39 +51,6 @@
     <t>Low Fidelity Prototype</t>
   </si>
   <si>
-    <t>User Login Backend</t>
-  </si>
-  <si>
-    <t>Login Page Frontend</t>
-  </si>
-  <si>
-    <t>Score Implementation</t>
-  </si>
-  <si>
-    <t>Progress Tracker</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Greeting/ Task information </t>
-  </si>
-  <si>
-    <t>Virtual Desktop Environment Front End</t>
-  </si>
-  <si>
-    <t>Exercise 3 - Safe Web Browsing &amp; Malware Downloads</t>
-  </si>
-  <si>
-    <t>Testing</t>
-  </si>
-  <si>
-    <t>Quiz Research and Creation</t>
-  </si>
-  <si>
-    <t>Poster and Description</t>
-  </si>
-  <si>
-    <t>Finalising Portfolio</t>
-  </si>
-  <si>
     <t>Tasks</t>
   </si>
   <si>
@@ -99,25 +66,55 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t xml:space="preserve">Quizzes Implementation </t>
-  </si>
-  <si>
-    <t>Excerise 1 - Emails - Phishing</t>
-  </si>
-  <si>
-    <t>Excerise 1 - Emails - Social Engineering</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Exercise 2 - Password Strength Tester </t>
-  </si>
-  <si>
-    <t>Excerise 4 - Recognizing Insider Threats</t>
-  </si>
-  <si>
-    <t>Improvements from Testing</t>
-  </si>
-  <si>
-    <t>Phishing Malware Simulation</t>
+    <t>Exercise 2 - Password Strength Tester</t>
+  </si>
+  <si>
+    <t>Set Up User Login Backend</t>
+  </si>
+  <si>
+    <t>Create Login Page Frontend</t>
+  </si>
+  <si>
+    <t>Design Virtual Desktop Interface</t>
+  </si>
+  <si>
+    <t>Add Greeting and Task Info Pages</t>
+  </si>
+  <si>
+    <t>Add Progress Tracker Feature</t>
+  </si>
+  <si>
+    <t>Implement Score Tracking</t>
+  </si>
+  <si>
+    <t>Conduct Testing</t>
+  </si>
+  <si>
+    <t>Apply Testing Improvements</t>
+  </si>
+  <si>
+    <t>Design Poster and Description</t>
+  </si>
+  <si>
+    <t>Finalise Portfolio and Polish UI</t>
+  </si>
+  <si>
+    <t>Implement Quizz</t>
+  </si>
+  <si>
+    <t>Research and Design Quizz</t>
+  </si>
+  <si>
+    <t>Exercise 1 - Phishing Email Task</t>
+  </si>
+  <si>
+    <t>Exercise 3 - Safe Web Browsing Task</t>
+  </si>
+  <si>
+    <t>Add Profile Section</t>
+  </si>
+  <si>
+    <t>Implement Admin Dashboard</t>
   </si>
 </sst>
 </file>
@@ -198,7 +195,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -297,7 +294,7 @@
             <c:strRef>
               <c:f>Sheet1!$A$5:$A$26</c:f>
               <c:strCache>
-                <c:ptCount val="22"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>Project Initiation</c:v>
                 </c:pt>
@@ -311,58 +308,55 @@
                   <c:v>Low Fidelity Prototype</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>User Login Backend</c:v>
+                  <c:v>Set Up User Login Backend</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Login Page Frontend</c:v>
+                  <c:v>Create Login Page Frontend</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Virtual Desktop Environment Front End</c:v>
+                  <c:v>Design Virtual Desktop Interface</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Excerise 1 - Emails - Phishing</c:v>
+                  <c:v>Exercise 1 - Phishing Email Task</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Excerise 1 - Emails - Social Engineering</c:v>
+                  <c:v>Exercise 2 - Password Strength Tester</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Exercise 2 - Password Strength Tester </c:v>
+                  <c:v>Add Greeting and Task Info Pages</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>Greeting/ Task information </c:v>
+                  <c:v>Add Progress Tracker Feature</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>Progress Tracker</c:v>
+                  <c:v>Research and Design Quizz</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>Quiz Research and Creation</c:v>
+                  <c:v>Implement Quizz</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>Quizzes Implementation </c:v>
+                  <c:v>Exercise 3 - Safe Web Browsing Task</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>Phishing Malware Simulation</c:v>
+                  <c:v>Add Profile Section</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>Exercise 3 - Safe Web Browsing &amp; Malware Downloads</c:v>
+                  <c:v>Implement Admin Dashboard</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>Excerise 4 - Recognizing Insider Threats</c:v>
+                  <c:v>Implement Score Tracking</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>Score Implementation</c:v>
+                  <c:v>Conduct Testing</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>Testing</c:v>
+                  <c:v>Apply Testing Improvements</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>Improvements from Testing</c:v>
+                  <c:v>Design Poster and Description</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>Poster and Description</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>Finalising Portfolio</c:v>
+                  <c:v>Finalise Portfolio and Polish UI</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -371,73 +365,70 @@
             <c:numRef>
               <c:f>Sheet1!$B$5:$B$26</c:f>
               <c:numCache>
-                <c:formatCode>mmm\-yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
-                  <c:v>45585</c:v>
+                  <c:v>45589</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45586</c:v>
+                  <c:v>45589</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45587</c:v>
+                  <c:v>45589</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>45590</c:v>
+                  <c:v>45589</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45597</c:v>
+                  <c:v>45600</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>45597</c:v>
+                  <c:v>45600</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>45604</c:v>
+                  <c:v>45607</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>45608</c:v>
+                  <c:v>45609</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>45618</c:v>
+                  <c:v>45629</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>45628</c:v>
+                  <c:v>45636</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>45635</c:v>
+                  <c:v>45643</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>45642</c:v>
+                  <c:v>45659</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>45649</c:v>
+                  <c:v>45670</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>45667</c:v>
+                  <c:v>45680</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>45677</c:v>
+                  <c:v>45683</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>45684</c:v>
+                  <c:v>45685</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>45684</c:v>
+                  <c:v>45698</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>45695</c:v>
+                  <c:v>45705</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>45702</c:v>
+                  <c:v>45719</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>45702</c:v>
+                  <c:v>45733</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>45730</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>45737</c:v>
+                  <c:v>45740</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -476,7 +467,7 @@
             <c:strRef>
               <c:f>Sheet1!$A$5:$A$26</c:f>
               <c:strCache>
-                <c:ptCount val="22"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>Project Initiation</c:v>
                 </c:pt>
@@ -490,58 +481,55 @@
                   <c:v>Low Fidelity Prototype</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>User Login Backend</c:v>
+                  <c:v>Set Up User Login Backend</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Login Page Frontend</c:v>
+                  <c:v>Create Login Page Frontend</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Virtual Desktop Environment Front End</c:v>
+                  <c:v>Design Virtual Desktop Interface</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Excerise 1 - Emails - Phishing</c:v>
+                  <c:v>Exercise 1 - Phishing Email Task</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Excerise 1 - Emails - Social Engineering</c:v>
+                  <c:v>Exercise 2 - Password Strength Tester</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Exercise 2 - Password Strength Tester </c:v>
+                  <c:v>Add Greeting and Task Info Pages</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>Greeting/ Task information </c:v>
+                  <c:v>Add Progress Tracker Feature</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>Progress Tracker</c:v>
+                  <c:v>Research and Design Quizz</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>Quiz Research and Creation</c:v>
+                  <c:v>Implement Quizz</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>Quizzes Implementation </c:v>
+                  <c:v>Exercise 3 - Safe Web Browsing Task</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>Phishing Malware Simulation</c:v>
+                  <c:v>Add Profile Section</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>Exercise 3 - Safe Web Browsing &amp; Malware Downloads</c:v>
+                  <c:v>Implement Admin Dashboard</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>Excerise 4 - Recognizing Insider Threats</c:v>
+                  <c:v>Implement Score Tracking</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>Score Implementation</c:v>
+                  <c:v>Conduct Testing</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>Testing</c:v>
+                  <c:v>Apply Testing Improvements</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>Improvements from Testing</c:v>
+                  <c:v>Design Poster and Description</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>Poster and Description</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>Finalising Portfolio</c:v>
+                  <c:v>Finalise Portfolio and Polish UI</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -553,31 +541,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>7</c:v>
@@ -586,37 +574,34 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>18</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>10</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>11</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>11</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>7</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>14</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>30</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>38</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -715,7 +700,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="mmm\-yy" sourceLinked="1"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1347,7 +1332,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{3EF4FB33-4389-4F14-AF7E-1A9E25D13790}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="120" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1358,7 +1343,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9302750" cy="6080125"/>
+    <xdr:ext cx="9297051" cy="6073205"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -1704,10 +1689,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5007213-0D92-410E-AC54-80C5C3AB5883}">
-  <dimension ref="A3:N27"/>
+  <dimension ref="A3:N47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1746,167 +1731,167 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="2">
-        <v>45585</v>
+      <c r="B5" s="1">
+        <v>45589</v>
       </c>
       <c r="C5" s="1">
         <v>45590</v>
       </c>
       <c r="D5">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="2">
-        <v>45586</v>
+      <c r="B6" s="1">
+        <v>45589</v>
       </c>
       <c r="C6" s="1">
         <v>45590</v>
       </c>
       <c r="D6">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="A7" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="2">
-        <v>45587</v>
+      <c r="B7" s="1">
+        <v>45589</v>
       </c>
       <c r="C7" s="1">
         <v>45590</v>
       </c>
       <c r="D7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="2">
-        <v>45590</v>
+      <c r="B8" s="1">
+        <v>45589</v>
       </c>
       <c r="C8" s="1">
         <v>45597</v>
       </c>
       <c r="D8">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="2">
-        <v>45597</v>
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="1">
+        <v>45600</v>
       </c>
       <c r="C9" s="1">
         <v>45604</v>
       </c>
       <c r="D9">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="2">
-        <v>45597</v>
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="1">
+        <v>45600</v>
       </c>
       <c r="C10" s="1">
         <v>45604</v>
       </c>
       <c r="D10">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="2">
-        <v>45604</v>
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="1">
+        <v>45607</v>
       </c>
       <c r="C11" s="1">
         <v>45608</v>
       </c>
       <c r="D11">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="2">
-        <v>45608</v>
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="1">
+        <v>45609</v>
       </c>
       <c r="C12" s="1">
-        <v>45618</v>
+        <v>45629</v>
       </c>
       <c r="D12">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="2">
-        <v>45618</v>
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="1">
+        <v>45629</v>
       </c>
       <c r="C13" s="1">
-        <v>45628</v>
+        <v>45635</v>
       </c>
       <c r="D13">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" s="2">
-        <v>45628</v>
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1">
+        <v>45636</v>
       </c>
       <c r="C14" s="1">
-        <v>45635</v>
+        <v>45642</v>
       </c>
       <c r="D14">
         <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" s="2">
-        <v>45635</v>
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1">
+        <v>45643</v>
       </c>
       <c r="C15" s="1">
-        <v>45642</v>
+        <v>45649</v>
       </c>
       <c r="D15">
         <v>7</v>
@@ -1914,165 +1899,232 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16" s="2">
-        <v>45642</v>
+        <v>21</v>
+      </c>
+      <c r="B16" s="1">
+        <v>45659</v>
       </c>
       <c r="C16" s="1">
-        <v>45649</v>
+        <v>45667</v>
       </c>
       <c r="D16">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" s="2">
-        <v>45649</v>
+        <v>20</v>
+      </c>
+      <c r="B17" s="1">
+        <v>45670</v>
       </c>
       <c r="C17" s="1">
-        <v>45667</v>
+        <v>45677</v>
       </c>
       <c r="D17">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="2">
-        <v>45667</v>
+        <v>23</v>
+      </c>
+      <c r="B18" s="1">
+        <v>45680</v>
       </c>
       <c r="C18" s="1">
-        <v>45677</v>
+        <v>45695</v>
       </c>
       <c r="D18">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" s="2">
-        <v>45677</v>
+        <v>24</v>
+      </c>
+      <c r="B19" s="1">
+        <v>45683</v>
       </c>
       <c r="C19" s="1">
-        <v>45684</v>
+        <v>45694</v>
       </c>
       <c r="D19">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" s="2">
-        <v>45684</v>
+        <v>25</v>
+      </c>
+      <c r="B20" s="1">
+        <v>45685</v>
       </c>
       <c r="C20" s="1">
-        <v>45695</v>
+        <v>45697</v>
       </c>
       <c r="D20">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" s="2">
-        <v>45684</v>
+        <v>15</v>
+      </c>
+      <c r="B21" s="1">
+        <v>45698</v>
       </c>
       <c r="C21" s="1">
-        <v>45695</v>
+        <v>45702</v>
       </c>
       <c r="D21">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>6</v>
-      </c>
-      <c r="B22" s="2">
-        <v>45695</v>
+        <v>16</v>
+      </c>
+      <c r="B22" s="1">
+        <v>45705</v>
       </c>
       <c r="C22" s="1">
-        <v>45702</v>
+        <v>45716</v>
       </c>
       <c r="D22">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>11</v>
-      </c>
-      <c r="B23" s="2">
-        <v>45702</v>
+        <v>17</v>
+      </c>
+      <c r="B23" s="1">
+        <v>45719</v>
       </c>
       <c r="C23" s="1">
-        <v>45716</v>
+        <v>45730</v>
       </c>
       <c r="D23">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" s="2">
-        <v>45702</v>
+        <v>18</v>
+      </c>
+      <c r="B24" s="1">
+        <v>45733</v>
       </c>
       <c r="C24" s="1">
-        <v>45730</v>
+        <v>45737</v>
       </c>
       <c r="D24">
-        <v>30</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>13</v>
-      </c>
-      <c r="B25" s="2">
-        <v>45730</v>
+        <v>19</v>
+      </c>
+      <c r="B25" s="1">
+        <v>45740</v>
       </c>
       <c r="C25" s="1">
-        <v>45737</v>
+        <v>45775</v>
       </c>
       <c r="D25">
-        <v>7</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>14</v>
-      </c>
-      <c r="B26" s="2">
-        <v>45737</v>
-      </c>
-      <c r="C26" s="1">
-        <v>45775</v>
-      </c>
-      <c r="D26">
-        <v>38</v>
-      </c>
+      <c r="A26" s="3"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="1"/>
       <c r="M26" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="L27" t="s">
-        <v>19</v>
-      </c>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
